--- a/Neurology_Sim_Parameters.xlsx
+++ b/Neurology_Sim_Parameters.xlsx
@@ -28,7 +28,7 @@
     <t>Neuro-ophthalmology Clinic</t>
   </si>
   <si>
-    <t>General Neuruology Clinic</t>
+    <t>General Neurology Clinic</t>
   </si>
   <si>
     <t>PCP</t>
